--- a/trunk/doc/testes/CT - Manter Usuário.xlsx
+++ b/trunk/doc/testes/CT - Manter Usuário.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="600" windowWidth="19815" windowHeight="7365"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Capa" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="Versão" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="Scripts" state="visible" r:id="rId5"/>
+    <sheet name="Capa" sheetId="1" r:id="rId1"/>
+    <sheet name="Versão" sheetId="2" r:id="rId2"/>
+    <sheet name="Scripts" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Scrumming</t>
   </si>
@@ -226,34 +229,71 @@
   <si>
     <t>O sistema não deverá realizar a operação.</t>
   </si>
+  <si>
+    <t>03.00 - 09/04/2014</t>
+  </si>
+  <si>
+    <t>Efetuar Inclusão/Alteração sem sucesso. Usuário já cadastrado.
+Deve existir Empresa cadastrada;
+Deve existir Usuário Empresa cadastrado com acesso a funcionalidade de manter usuário.
+Deve existir Usuário cadastrado.</t>
+  </si>
+  <si>
+    <t>1- Acessar o sistema;
+2- Efetuar login como Usuário Empresa;
+3- Acionar o link de acesso ao cadastro de Usuário;
+4- Acionar a opção de incluir/alterar usuário;
+5- Informar dados de usuário já existente.</t>
+  </si>
+  <si>
+    <t>O sistema não deverá realizar a operação e informar que usuário já encontra-se cadastrado no sistema
+"Email informado já encontra-se cadastrado."</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="36.0"/>
+      <sz val="36"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
+      <name val="Arial"/>
     </font>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -272,427 +312,716 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3">
-      <alignment/>
-    </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="4">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="5">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="6">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="7">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Escritório">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Escritório">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Escritório">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="12.57"/>
-    <col min="2" customWidth="1" max="2" width="21.43"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c t="s" s="1" r="B2">
+    <row r="2" spans="2:2" ht="44.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c t="s" s="2" r="B5">
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c s="3" r="B7"/>
+    <row r="7" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B7" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="19.43"/>
-    <col min="2" customWidth="1" max="2" width="18.29"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="3" r="A1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="3" r="B1">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c t="s" s="3" r="A2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="3" r="B2">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" s="3" r="A3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="3" r="B3">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="3.0"/>
-    <col min="2" customWidth="1" max="2" width="64.29"/>
-    <col min="3" customWidth="1" max="3" width="55.0"/>
-    <col min="4" customWidth="1" max="4" width="62.57"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="64.28515625" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="62.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c t="s" s="4" r="A1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c t="s" s="4" r="B1">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c t="s" s="4" r="C1">
+      <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c t="s" s="4" r="D1">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2">
-      <c s="4" r="A2">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="5" r="B2">
+    <row r="2" spans="1:4" ht="76.5">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c t="s" s="5" r="C2">
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c t="s" s="5" r="D2">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c s="4" r="A3">
-        <v>2.0</v>
-      </c>
-      <c t="s" s="5" r="B3">
+    <row r="3" spans="1:4" ht="89.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="5" r="C3">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c t="s" s="5" r="D3">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c s="4" r="A4">
-        <v>3.0</v>
-      </c>
-      <c t="s" s="5" r="B4">
+    <row r="4" spans="1:4" ht="76.5">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c t="s" s="5" r="C4">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c t="s" s="5" r="D4">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
-      <c s="4" r="A5">
-        <v>4.0</v>
-      </c>
-      <c t="s" s="5" r="B5">
+    <row r="5" spans="1:4" ht="51">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c t="s" s="5" r="C5">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c t="s" s="5" r="D5">
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6">
-      <c s="4" r="A6">
-        <v>5.0</v>
-      </c>
-      <c t="s" s="5" r="B6">
+    <row r="6" spans="1:4" ht="89.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c t="s" s="5" r="C6">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c t="s" s="5" r="D6">
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7">
-      <c s="4" r="A7">
-        <v>6.0</v>
-      </c>
-      <c t="s" s="5" r="B7">
+    <row r="7" spans="1:4" ht="76.5">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c t="s" s="5" r="C7">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c t="s" s="5" r="D7">
+      <c r="D7" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8">
-      <c s="4" r="A8">
-        <v>7.0</v>
-      </c>
-      <c t="s" s="5" r="B8">
+    <row r="8" spans="1:4" ht="63.75">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
-      <c t="s" s="5" r="C8">
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c t="s" s="5" r="D8">
+      <c r="D8" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9">
-      <c s="4" r="A9">
-        <v>8.0</v>
-      </c>
-      <c t="s" s="5" r="B9">
+    <row r="9" spans="1:4" ht="51">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c t="s" s="5" r="C9">
+      <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c t="s" s="5" r="D9">
+      <c r="D9" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10">
-      <c s="4" r="A10">
-        <v>9.0</v>
-      </c>
-      <c t="s" s="5" r="B10">
+    <row r="10" spans="1:4" ht="102">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
-      <c t="s" s="5" r="C10">
+      <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
-      <c t="s" s="5" r="D10">
+      <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11">
-      <c s="4" r="A11">
-        <v>10.0</v>
-      </c>
-      <c t="s" s="5" r="B11">
+    <row r="11" spans="1:4" ht="89.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="5" r="C11">
+      <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
-      <c t="s" s="5" r="D11">
+      <c r="D11" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12">
-      <c s="4" r="A12">
-        <v>11.0</v>
-      </c>
-      <c t="s" s="5" r="B12">
+    <row r="12" spans="1:4" ht="63.75">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
-      <c t="s" s="5" r="C12">
+      <c r="C12" s="5" t="s">
         <v>43</v>
       </c>
-      <c t="s" s="5" r="D12">
+      <c r="D12" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13">
-      <c s="4" r="A13"/>
-      <c s="6" r="B13"/>
-      <c s="6" r="C13"/>
-      <c s="6" r="D13"/>
-    </row>
-    <row r="14">
-      <c s="4" r="A14"/>
-      <c s="6" r="B14"/>
-      <c s="6" r="C14"/>
-      <c s="6" r="D14"/>
-    </row>
-    <row r="15">
-      <c s="4" r="A15"/>
-      <c s="6" r="B15"/>
-      <c s="6" r="C15"/>
-      <c s="6" r="D15"/>
-    </row>
-    <row r="16">
-      <c s="4" r="A16"/>
-      <c s="6" r="B16"/>
-      <c s="6" r="C16"/>
-      <c s="6" r="D16"/>
-    </row>
-    <row r="17">
-      <c s="4" r="A17"/>
-      <c s="6" r="B17"/>
-      <c s="6" r="C17"/>
-      <c s="6" r="D17"/>
-    </row>
-    <row r="18">
-      <c s="4" r="A18"/>
-      <c s="6" r="B18"/>
-      <c s="6" r="C18"/>
-      <c s="6" r="D18"/>
-    </row>
-    <row r="19">
-      <c s="4" r="A19"/>
-      <c s="6" r="B19"/>
-      <c s="6" r="C19"/>
-      <c s="6" r="D19"/>
-    </row>
-    <row r="20">
-      <c s="4" r="A20"/>
-      <c s="6" r="B20"/>
-      <c s="6" r="C20"/>
-      <c s="6" r="D20"/>
-    </row>
-    <row r="21">
-      <c s="4" r="A21"/>
-      <c s="6" r="B21"/>
-      <c s="6" r="C21"/>
-      <c s="6" r="D21"/>
-    </row>
-    <row r="22">
-      <c s="4" r="A22"/>
-      <c s="6" r="B22"/>
-      <c s="6" r="C22"/>
-      <c s="6" r="D22"/>
-    </row>
-    <row r="23">
-      <c s="4" r="A23"/>
-      <c s="7" r="B23"/>
-      <c s="7" r="C23"/>
-      <c s="7" r="D23"/>
-    </row>
-    <row r="24">
-      <c s="7" r="B24"/>
-      <c s="7" r="C24"/>
-      <c s="7" r="D24"/>
-    </row>
-    <row r="25">
-      <c s="7" r="B25"/>
-      <c s="7" r="C25"/>
-      <c s="7" r="D25"/>
-    </row>
-    <row r="26">
-      <c s="7" r="B26"/>
-      <c s="7" r="C26"/>
-      <c s="7" r="D26"/>
-    </row>
-    <row r="27">
-      <c s="7" r="B27"/>
-      <c s="7" r="C27"/>
-      <c s="7" r="D27"/>
-    </row>
-    <row r="28">
-      <c s="7" r="B28"/>
-      <c s="7" r="C28"/>
-      <c s="7" r="D28"/>
-    </row>
-    <row r="29">
-      <c s="7" r="B29"/>
-      <c s="7" r="C29"/>
-      <c s="7" r="D29"/>
-    </row>
-    <row r="30">
-      <c s="7" r="B30"/>
-      <c s="7" r="C30"/>
-      <c s="7" r="D30"/>
-    </row>
-    <row r="31">
-      <c s="7" r="B31"/>
-      <c s="7" r="C31"/>
-      <c s="7" r="D31"/>
-    </row>
-    <row r="32">
-      <c s="7" r="B32"/>
-      <c s="7" r="C32"/>
-      <c s="7" r="D32"/>
-    </row>
-    <row r="33">
-      <c s="7" r="B33"/>
-      <c s="7" r="C33"/>
-      <c s="7" r="D33"/>
-    </row>
-    <row r="34">
-      <c s="7" r="B34"/>
-      <c s="7" r="C34"/>
-      <c s="7" r="D34"/>
+    <row r="13" spans="1:4" ht="76.5">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/trunk/doc/testes/CT - Manter Usuário.xlsx
+++ b/trunk/doc/testes/CT - Manter Usuário.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Scrumming</t>
   </si>
@@ -248,6 +248,12 @@
   <si>
     <t>O sistema não deverá realizar a operação e informar que usuário já encontra-se cadastrado no sistema
 "Email informado já encontra-se cadastrado."</t>
+  </si>
+  <si>
+    <t>04.00 - 18/04/2014</t>
+  </si>
+  <si>
+    <t>Efetuar a inclusão de um mesmo Usuário em mais de uma empresa.</t>
   </si>
 </sst>
 </file>
@@ -648,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" ht="18">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -663,7 +669,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -702,6 +708,14 @@
         <v>45</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -907,8 +921,12 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
